--- a/model/data/izz/xlsx/izz.xlsx
+++ b/model/data/izz/xlsx/izz.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mverdaasdo001\Documents\RBS_open_source\trbs\model\data\IZZ\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/izz/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A3873-3BC0-4537-8C36-F13414721E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A52EF-5C40-7C45-A8AF-33F352785173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12645" firstSheet="4" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="1660" yWindow="660" windowWidth="12140" windowHeight="20340" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="146">
   <si>
     <t>configuration</t>
   </si>
@@ -392,13 +394,103 @@
   </si>
   <si>
     <t>Base case</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>Report of the performed IZZ case</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>Resulting appreciations of different DMOs for scenario:</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>To enable the IZZ Foundation to offer healthcare institutions objective insights into what - for them - is the optimal decision regarding the sustainability and empowerment of their employees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,6 +548,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -481,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -504,6 +617,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -512,27 +638,35 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{176DD84D-32FB-D04E-A92F-B8E65F637E0C}"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +682,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,15 +982,185 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A45AE-3B4E-F64C-97F1-E9EBA855DA02}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,6 +1168,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613BEBE4-0DD0-C243-97D1-FE7612117E1A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -871,13 +1218,13 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -906,7 +1253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -926,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -946,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -966,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1026,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1084,333 +1431,6 @@
       </c>
       <c r="F10">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1419,6 +1439,333 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" customHeight="1">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1426,12 +1773,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1464,7 +1811,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +1822,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1486,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1844,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1855,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1519,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1530,7 +1877,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1541,7 +1888,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1910,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1574,7 +1921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1585,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1596,7 +1943,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1607,7 +1954,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1618,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1629,7 +1976,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1645,7 +1992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1653,12 +2000,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1666,107 +2013,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>6.4000000000000005E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>8.5999999999999998E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>0.23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>200</v>
       </c>
     </row>
@@ -1776,26 +2123,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="51.25" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1821,238 +2168,238 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="6"/>
       <c r="D18" t="s">
         <v>108</v>
       </c>
@@ -2069,14 +2416,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="6"/>
       <c r="D19" t="s">
         <v>108</v>
       </c>
@@ -2093,14 +2440,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" t="s">
         <v>108</v>
       </c>
@@ -2117,14 +2464,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" t="s">
         <v>108</v>
       </c>
@@ -2141,14 +2488,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="6"/>
       <c r="D22" t="s">
         <v>108</v>
       </c>
@@ -2165,14 +2512,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="6"/>
       <c r="D23" t="s">
         <v>108</v>
       </c>
@@ -2189,14 +2536,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="4"/>
       <c r="D24" t="s">
         <v>108</v>
       </c>
@@ -2213,14 +2560,14 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="4"/>
       <c r="D25" t="s">
         <v>108</v>
       </c>
@@ -2237,14 +2584,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="4"/>
       <c r="D26" t="s">
         <v>108</v>
       </c>
@@ -2261,14 +2608,14 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="4"/>
       <c r="D27" t="s">
         <v>108</v>
       </c>
@@ -2285,14 +2632,14 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="4"/>
       <c r="D28" t="s">
         <v>108</v>
       </c>
@@ -2309,14 +2656,14 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="6"/>
       <c r="D29" t="s">
         <v>108</v>
       </c>
@@ -2333,14 +2680,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="6"/>
       <c r="D30" t="s">
         <v>108</v>
       </c>
@@ -2357,14 +2704,14 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="6"/>
       <c r="D31" t="s">
         <v>108</v>
       </c>
@@ -2381,38 +2728,38 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="6"/>
       <c r="D32" t="s">
         <v>108</v>
       </c>
       <c r="E32">
         <v>0.64</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.24</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>0.4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="6"/>
       <c r="D33" t="s">
         <v>108</v>
       </c>
@@ -2429,14 +2776,14 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="6"/>
       <c r="D34" t="s">
         <v>108</v>
       </c>
@@ -2453,14 +2800,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="6"/>
       <c r="D35" t="s">
         <v>108</v>
       </c>
@@ -2477,14 +2824,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="6"/>
       <c r="D36" t="s">
         <v>108</v>
       </c>
@@ -2501,538 +2848,538 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D56" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D65" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3040,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3048,9 +3395,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3066,7 +3413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3087,12 +3434,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3100,122 +3447,75 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
     </row>

--- a/model/data/izz/xlsx/izz.xlsx
+++ b/model/data/izz/xlsx/izz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/izz/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A52EF-5C40-7C45-A8AF-33F352785173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B222B-951A-AD48-966A-E6DDD7E4D72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="660" windowWidth="12140" windowHeight="20340" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="1660" yWindow="660" windowWidth="12140" windowHeight="20340" firstSheet="9" activeTab="10" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -450,9 +450,6 @@
     <t>title_weighted_graph</t>
   </si>
   <si>
-    <t>Report of the performed IZZ case</t>
-  </si>
-  <si>
     <t>title_fixed_inputs</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>intro_weighted_graph</t>
   </si>
   <si>
-    <t>Resulting appreciations of different DMOs for scenario:</t>
-  </si>
-  <si>
     <t>case_text_element</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>To enable the IZZ Foundation to offer healthcare institutions objective insights into what - for them - is the optimal decision regarding the sustainability and empowerment of their employees</t>
+  </si>
+  <si>
+    <t>Report of the IZZ case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
@@ -1048,15 +1048,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A45AE-3B4E-F64C-97F1-E9EBA855DA02}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1144,21 +1144,21 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="12"/>
     </row>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613BEBE4-0DD0-C243-97D1-FE7612117E1A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1183,7 +1183,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1194,15 +1194,15 @@
         <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
